--- a/Download/Subnet - Copy.xlsx
+++ b/Download/Subnet - Copy.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fadly\OneDrive\Desktop\259 - EXAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fadly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81EA8BB-E4A7-4646-829B-27049FA9FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E8F6E-9A91-40FD-A458-FFB2391902BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{837C9547-22A7-4971-A446-E7354688131E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{837C9547-22A7-4971-A446-E7354688131E}"/>
   </bookViews>
   <sheets>
-    <sheet name="IP" sheetId="4" r:id="rId1"/>
-    <sheet name="Subnet" sheetId="1" r:id="rId2"/>
-    <sheet name="Class C" sheetId="2" r:id="rId3"/>
-    <sheet name="Class A" sheetId="3" r:id="rId4"/>
-    <sheet name="Subnet Calculator (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Subnet Calculator (2)" sheetId="5" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="host">[1]Binary!$T$3:$U$34</definedName>
@@ -48,260 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
-  <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>99.0.0.0</t>
-  </si>
-  <si>
-    <t>Class: A</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>2n ≥ N</t>
-  </si>
-  <si>
-    <t>Subnet Bit Required</t>
-  </si>
-  <si>
-    <t>Step 2:
-Prefix Length</t>
-  </si>
-  <si>
-    <t>Step 1:
-Subnet Size</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Prefix Length = Total Bits - Bit Required 
-Prefix Length = Current CIDR + Bit Required
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t>32 - 11 = 21
-/21</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>192.168.10.254</t>
-  </si>
-  <si>
-    <t>192.168.10.255/25</t>
-  </si>
-  <si>
-    <t>192.168.10.193/25</t>
-  </si>
-  <si>
-    <t>192.168.10.192/25</t>
-  </si>
-  <si>
-    <t>192.168.10.190/25</t>
-  </si>
-  <si>
-    <t>192.168.10.191/25</t>
-  </si>
-  <si>
-    <t>192.168.10.129/25</t>
-  </si>
-  <si>
-    <t>192.168.10.128/25</t>
-  </si>
-  <si>
-    <t>192.168.10.126/25</t>
-  </si>
-  <si>
-    <t>192.168.10.127/25</t>
-  </si>
-  <si>
-    <t>192.168.10.65/25</t>
-  </si>
-  <si>
-    <t>192.168.10.64/25</t>
-  </si>
-  <si>
-    <t>192.168.10.62/25</t>
-  </si>
-  <si>
-    <t>192.168.10.63/25</t>
-  </si>
-  <si>
-    <t>192.168.10.1/25</t>
-  </si>
-  <si>
-    <t>192.168.10.0/25</t>
-  </si>
-  <si>
-    <t>Last IP</t>
-  </si>
-  <si>
-    <t>Broadcast</t>
-  </si>
-  <si>
-    <t>First IP</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Broadcast-1(4th)</t>
-  </si>
-  <si>
-    <t>ALL H+1</t>
-  </si>
-  <si>
-    <t>IP+1</t>
-  </si>
-  <si>
-    <t>Prefix + 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Host Bit ALL 1 </t>
-  </si>
-  <si>
-    <t>255.255.224.0/19</t>
-  </si>
-  <si>
-    <t>Step 2: Resultant 
-Subnet Mask</t>
-  </si>
-  <si>
-    <t>1+0</t>
-  </si>
-  <si>
-    <t>(2^11 = 2,048)</t>
-  </si>
-  <si>
-    <t>Step 1: Subnet</t>
-  </si>
-  <si>
-    <t>1111 1111</t>
-  </si>
-  <si>
-    <t>Resultant Subnet Mask = 255.255.255.128/25</t>
-  </si>
-  <si>
-    <t>Prefix Length</t>
-  </si>
-  <si>
-    <t>/24</t>
-  </si>
-  <si>
-    <t>USED BIT 1 = (1^1*2) = 2</t>
-  </si>
-  <si>
-    <t>Subnet Mask</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>0000 1010</t>
-  </si>
-  <si>
-    <t>1010 1000</t>
-  </si>
-  <si>
-    <t>1100 0000</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>Bits</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>CIDR = 25</t>
-  </si>
-  <si>
-    <t>Class: C</t>
-  </si>
-  <si>
-    <t>192.168.10.0/24</t>
-  </si>
-  <si>
-    <t>Step 2: Network Bit + 1</t>
-  </si>
-  <si>
-    <t>100.0.95.254/19</t>
-  </si>
-  <si>
-    <t>100.0.95.255/19</t>
-  </si>
-  <si>
-    <t>100.0.64.1/19</t>
-  </si>
-  <si>
-    <t>100.0.64.0/19</t>
-  </si>
-  <si>
-    <t>100.0.63.254/19</t>
-  </si>
-  <si>
-    <t>100.0.63.255/19</t>
-  </si>
-  <si>
-    <t>100.0.32.1/19</t>
-  </si>
-  <si>
-    <t>100.0.32.0/19</t>
-  </si>
-  <si>
-    <t>100.0.31.254/19</t>
-  </si>
-  <si>
-    <t>100.0.31.255/19</t>
-  </si>
-  <si>
-    <t>100.0.0.1/19</t>
-  </si>
-  <si>
-    <t>100.0.0.0/19</t>
-  </si>
-  <si>
-    <t>0000 0000</t>
-  </si>
-  <si>
-    <t>Resultant Subnet Mask = 255.255.224.0/19</t>
-  </si>
-  <si>
-    <t>/8</t>
-  </si>
-  <si>
-    <t>0110 0100</t>
-  </si>
-  <si>
-    <t>CIDR = 19</t>
-  </si>
-  <si>
-    <t>100.0.0.0/8</t>
   </si>
   <si>
     <t>Designed/Created by Mathew Shreve</t>
@@ -377,123 +125,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF201F1E"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -529,78 +167,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,189 +199,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF1A2E52"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF1A2E52"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF1A2E52"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1A2E52"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -999,397 +394,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1407,220 +513,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>288215</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4262179" cy="6107025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537762EB-CAC2-46A3-B50F-40AAD423C427}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10212144" y="0"/>
-          <a:ext cx="4262179" cy="6107025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>394973</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>89198</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>116543</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE314C8-58BF-488D-A5BA-90BC0893A1E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9099702" y="1702845"/>
-          <a:ext cx="940770" cy="1112073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00">
-            <a:alpha val="43000"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>195847</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7C0468-4AD3-4A41-B174-9B11980E0B4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5979459" y="107575"/>
-          <a:ext cx="4140317" cy="4760259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8517</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5822150" cy="2420470"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6786FCB-6167-42AA-BD54-8C5C33E71825}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8517" y="0"/>
-          <a:ext cx="5822150" cy="2420470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9564,3418 +8456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C2229A-EC28-422E-97B9-54FA2A598C58}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L12" s="87"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A1:H10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E73D37-41ED-4507-B3BD-1E3C030D9CAA}">
-  <dimension ref="A2:O18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:AG11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="91"/>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="90">
-        <v>11</v>
-      </c>
-      <c r="D4" s="91"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="15:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="O18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A62CB-17AD-4379-B011-99310157B370}">
-  <dimension ref="A2:AT36"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" customWidth="1"/>
-    <col min="14" max="15" width="2.44140625" customWidth="1"/>
-    <col min="16" max="16" width="2.109375" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" customWidth="1"/>
-    <col min="19" max="20" width="2.21875" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" customWidth="1"/>
-    <col min="22" max="22" width="2.6640625" customWidth="1"/>
-    <col min="23" max="23" width="2.21875" customWidth="1"/>
-    <col min="24" max="24" width="3.21875" customWidth="1"/>
-    <col min="25" max="25" width="2.21875" customWidth="1"/>
-    <col min="26" max="26" width="2.44140625" customWidth="1"/>
-    <col min="27" max="27" width="2.5546875" customWidth="1"/>
-    <col min="28" max="29" width="2.44140625" customWidth="1"/>
-    <col min="30" max="30" width="1.21875" customWidth="1"/>
-    <col min="31" max="31" width="2.44140625" customWidth="1"/>
-    <col min="32" max="32" width="1.88671875" customWidth="1"/>
-    <col min="33" max="33" width="1.77734375" customWidth="1"/>
-    <col min="34" max="35" width="2.6640625" customWidth="1"/>
-    <col min="36" max="37" width="2.21875" customWidth="1"/>
-    <col min="38" max="38" width="1.88671875" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" customWidth="1"/>
-    <col min="40" max="40" width="15.77734375" customWidth="1"/>
-    <col min="41" max="41" width="16.77734375" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="122"/>
-      <c r="F3" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="111"/>
-    </row>
-    <row r="5" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="53">
-        <v>192</v>
-      </c>
-      <c r="C5" s="53">
-        <v>168</v>
-      </c>
-      <c r="D5" s="53">
-        <v>10</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36">
-        <v>8</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="123">
-        <v>8</v>
-      </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="94">
-        <v>8</v>
-      </c>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="109">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-    </row>
-    <row r="6" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="53">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="53">
-        <v>255</v>
-      </c>
-      <c r="C7" s="53">
-        <v>255</v>
-      </c>
-      <c r="D7" s="53">
-        <v>255</v>
-      </c>
-      <c r="E7" s="52">
-        <v>0</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="50">
-        <v>255</v>
-      </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="117">
-        <v>255</v>
-      </c>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="118">
-        <v>255</v>
-      </c>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="119">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="121"/>
-    </row>
-    <row r="8" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="44"/>
-    </row>
-    <row r="9" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="42">
-        <v>8</v>
-      </c>
-      <c r="C9" s="42">
-        <v>8</v>
-      </c>
-      <c r="D9" s="42">
-        <v>8</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="111"/>
-    </row>
-    <row r="10" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-    </row>
-    <row r="11" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37">
-        <v>192</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="106">
-        <v>168</v>
-      </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="106">
-        <v>10</v>
-      </c>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="36">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K12" s="33">
-        <v>255</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="92">
-        <v>255</v>
-      </c>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="93">
-        <v>255</v>
-      </c>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="94">
-        <v>128</v>
-      </c>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-    </row>
-    <row r="13" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="AM13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP14" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="13">
-        <v>192</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0</v>
-      </c>
-      <c r="S15" s="16">
-        <v>0</v>
-      </c>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="16">
-        <v>0</v>
-      </c>
-      <c r="W15" s="16">
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP15" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="14">
-        <v>192</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="103">
-        <v>168</v>
-      </c>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="104">
-        <v>10</v>
-      </c>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="97">
-        <v>63</v>
-      </c>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="98"/>
-      <c r="AM16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP16" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AM17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP17" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="101"/>
-      <c r="AJ18" s="101"/>
-      <c r="AK18" s="101"/>
-      <c r="AL18" s="101"/>
-      <c r="AM18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP18" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="13">
-        <v>192</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
-      <c r="S19" s="16">
-        <v>0</v>
-      </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" s="16">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16">
-        <v>0</v>
-      </c>
-      <c r="X19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP19" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="14">
-        <v>192</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="103">
-        <v>168</v>
-      </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="104">
-        <v>10</v>
-      </c>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="94">
-        <v>64</v>
-      </c>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="105"/>
-    </row>
-    <row r="21" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="101"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="101"/>
-    </row>
-    <row r="23" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="13">
-        <v>192</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="16">
-        <v>0</v>
-      </c>
-      <c r="N23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>0</v>
-      </c>
-      <c r="R23" s="16">
-        <v>0</v>
-      </c>
-      <c r="S23" s="16">
-        <v>0</v>
-      </c>
-      <c r="T23" s="16">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V23" s="16">
-        <v>0</v>
-      </c>
-      <c r="W23" s="16">
-        <v>0</v>
-      </c>
-      <c r="X23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="14">
-        <v>192</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="103">
-        <v>168</v>
-      </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="104">
-        <v>10</v>
-      </c>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="97">
-        <v>127</v>
-      </c>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="99"/>
-    </row>
-    <row r="25" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="101"/>
-    </row>
-    <row r="27" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K27" s="13">
-        <v>192</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="16">
-        <v>0</v>
-      </c>
-      <c r="N27" s="16">
-        <v>0</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0</v>
-      </c>
-      <c r="P27" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <v>0</v>
-      </c>
-      <c r="S27" s="16">
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V27" s="16">
-        <v>0</v>
-      </c>
-      <c r="W27" s="16">
-        <v>0</v>
-      </c>
-      <c r="X27" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="14">
-        <v>192</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="103">
-        <v>168</v>
-      </c>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="104">
-        <v>10</v>
-      </c>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="94">
-        <v>128</v>
-      </c>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="105"/>
-    </row>
-    <row r="29" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="101"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="101"/>
-    </row>
-    <row r="31" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="13">
-        <v>192</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="16">
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>0</v>
-      </c>
-      <c r="R31" s="16">
-        <v>0</v>
-      </c>
-      <c r="S31" s="16">
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
-        <v>0</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V31" s="16">
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
-        <v>0</v>
-      </c>
-      <c r="X31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K32" s="14">
-        <v>192</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="103">
-        <v>168</v>
-      </c>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="104">
-        <v>10</v>
-      </c>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="97">
-        <v>191</v>
-      </c>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="99"/>
-    </row>
-    <row r="33" spans="11:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="11:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="101"/>
-      <c r="AE34" s="101"/>
-      <c r="AF34" s="101"/>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="101"/>
-    </row>
-    <row r="35" spans="11:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="13">
-        <v>192</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="16">
-        <v>0</v>
-      </c>
-      <c r="N35" s="16">
-        <v>0</v>
-      </c>
-      <c r="O35" s="16">
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>0</v>
-      </c>
-      <c r="R35" s="16">
-        <v>0</v>
-      </c>
-      <c r="S35" s="16">
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
-        <v>0</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V35" s="16">
-        <v>0</v>
-      </c>
-      <c r="W35" s="16">
-        <v>0</v>
-      </c>
-      <c r="X35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE35" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-    </row>
-    <row r="36" spans="11:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K36" s="14">
-        <v>192</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="103">
-        <v>168</v>
-      </c>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="104">
-        <v>10</v>
-      </c>
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="104"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="94">
-        <v>192</v>
-      </c>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="105"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K4:AL4"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="AE5:AL5"/>
-    <mergeCell ref="K9:AL9"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="M36:T36"/>
-    <mergeCell ref="V36:AC36"/>
-    <mergeCell ref="AE36:AL36"/>
-    <mergeCell ref="K22:AL22"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="V24:AC24"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="M32:T32"/>
-    <mergeCell ref="V32:AC32"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="AE20:AL20"/>
-    <mergeCell ref="K34:AL34"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="AE14:AL14"/>
-    <mergeCell ref="AE16:AL16"/>
-    <mergeCell ref="K18:AL18"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="AE24:AL24"/>
-    <mergeCell ref="K26:AL26"/>
-    <mergeCell ref="M28:T28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="AE28:AL28"/>
-    <mergeCell ref="K30:AL30"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="AE12:AL12"/>
-    <mergeCell ref="AM10:AT10"/>
-    <mergeCell ref="AE32:AL32"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="V11:AC11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC37069-0C1B-4B30-AED1-48647C9F4170}">
-  <dimension ref="A2:AP32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" customWidth="1"/>
-    <col min="14" max="15" width="2.44140625" customWidth="1"/>
-    <col min="16" max="16" width="2.109375" customWidth="1"/>
-    <col min="17" max="17" width="2.21875" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" customWidth="1"/>
-    <col min="19" max="20" width="2.21875" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" customWidth="1"/>
-    <col min="22" max="22" width="2.6640625" customWidth="1"/>
-    <col min="23" max="23" width="2.21875" customWidth="1"/>
-    <col min="24" max="24" width="3.21875" customWidth="1"/>
-    <col min="25" max="25" width="2.21875" customWidth="1"/>
-    <col min="26" max="26" width="2.44140625" customWidth="1"/>
-    <col min="27" max="27" width="2.5546875" customWidth="1"/>
-    <col min="28" max="29" width="2.44140625" customWidth="1"/>
-    <col min="30" max="30" width="1.21875" customWidth="1"/>
-    <col min="31" max="31" width="2.44140625" customWidth="1"/>
-    <col min="32" max="32" width="1.88671875" customWidth="1"/>
-    <col min="33" max="33" width="1.77734375" customWidth="1"/>
-    <col min="34" max="35" width="2.6640625" customWidth="1"/>
-    <col min="36" max="37" width="2.21875" customWidth="1"/>
-    <col min="38" max="38" width="1.88671875" customWidth="1"/>
-    <col min="39" max="39" width="14.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" customWidth="1"/>
-    <col min="41" max="41" width="15.44140625" customWidth="1"/>
-    <col min="42" max="42" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="122"/>
-      <c r="F3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-    </row>
-    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="111"/>
-    </row>
-    <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="53">
-        <v>100</v>
-      </c>
-      <c r="C5" s="53">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="55">
-        <v>11</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36">
-        <v>8</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="123">
-        <v>8</v>
-      </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="123">
-        <v>3</v>
-      </c>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="124"/>
-    </row>
-    <row r="6" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="53">
-        <v>0</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0</v>
-      </c>
-      <c r="E6" s="53">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="37">
-        <v>100</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="37">
-        <v>1</v>
-      </c>
-      <c r="N6" s="37">
-        <v>1</v>
-      </c>
-      <c r="O6" s="37">
-        <v>1</v>
-      </c>
-      <c r="P6" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="37">
-        <v>1</v>
-      </c>
-      <c r="R6" s="37">
-        <v>1</v>
-      </c>
-      <c r="S6" s="37">
-        <v>1</v>
-      </c>
-      <c r="T6" s="37">
-        <v>1</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="37">
-        <v>1</v>
-      </c>
-      <c r="W6" s="37">
-        <v>1</v>
-      </c>
-      <c r="X6" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="53">
-        <v>255</v>
-      </c>
-      <c r="C7" s="53">
-        <v>0</v>
-      </c>
-      <c r="D7" s="53">
-        <v>0</v>
-      </c>
-      <c r="E7" s="52">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="33">
-        <v>255</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="92">
-        <v>255</v>
-      </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="93">
-        <v>224</v>
-      </c>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="127">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="129"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="44"/>
-    </row>
-    <row r="9" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="42">
-        <v>8</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="111"/>
-    </row>
-    <row r="10" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="13">
-        <v>8</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="104">
-        <v>8</v>
-      </c>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="104">
-        <v>3</v>
-      </c>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-    </row>
-    <row r="11" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37">
-        <v>100</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="37">
-        <v>1</v>
-      </c>
-      <c r="N11" s="37">
-        <v>1</v>
-      </c>
-      <c r="O11" s="37">
-        <v>1</v>
-      </c>
-      <c r="P11" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>1</v>
-      </c>
-      <c r="R11" s="37">
-        <v>1</v>
-      </c>
-      <c r="S11" s="37">
-        <v>1</v>
-      </c>
-      <c r="T11" s="37">
-        <v>1</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="37">
-        <v>1</v>
-      </c>
-      <c r="W11" s="37">
-        <v>1</v>
-      </c>
-      <c r="X11" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K12" s="33">
-        <v>255</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="92">
-        <v>255</v>
-      </c>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="123">
-        <v>224</v>
-      </c>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="127">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-    </row>
-    <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP14" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="13">
-        <v>100</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP15" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="14">
-        <v>100</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="103">
-        <v>0</v>
-      </c>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="125">
-        <v>31</v>
-      </c>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="112">
-        <v>255</v>
-      </c>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP16" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AM17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP17" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K18" s="27"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP18" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="13">
-        <v>100</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <v>0</v>
-      </c>
-      <c r="T19" s="15">
-        <v>0</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" s="15">
-        <v>0</v>
-      </c>
-      <c r="W19" s="15">
-        <v>0</v>
-      </c>
-      <c r="X19" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K20" s="14">
-        <v>100</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="103">
-        <v>0</v>
-      </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="123">
-        <v>32</v>
-      </c>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="112">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="124"/>
-    </row>
-    <row r="21" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="61"/>
-    </row>
-    <row r="23" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="13">
-        <v>100</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <v>0</v>
-      </c>
-      <c r="O23" s="15">
-        <v>0</v>
-      </c>
-      <c r="P23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15">
-        <v>0</v>
-      </c>
-      <c r="S23" s="15">
-        <v>0</v>
-      </c>
-      <c r="T23" s="15">
-        <v>0</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V23" s="15">
-        <v>0</v>
-      </c>
-      <c r="W23" s="15">
-        <v>0</v>
-      </c>
-      <c r="X23" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="14">
-        <v>100</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="103">
-        <v>0</v>
-      </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="125">
-        <v>63</v>
-      </c>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="112">
-        <v>255</v>
-      </c>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="124"/>
-    </row>
-    <row r="25" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="61"/>
-    </row>
-    <row r="27" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K27" s="13">
-        <v>100</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="15">
-        <v>0</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0</v>
-      </c>
-      <c r="P27" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>0</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
-      </c>
-      <c r="S27" s="15">
-        <v>0</v>
-      </c>
-      <c r="T27" s="15">
-        <v>0</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V27" s="15">
-        <v>0</v>
-      </c>
-      <c r="W27" s="15">
-        <v>1</v>
-      </c>
-      <c r="X27" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="14">
-        <v>100</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="103">
-        <v>0</v>
-      </c>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="123">
-        <v>64</v>
-      </c>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="112">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="113"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="113"/>
-      <c r="AJ28" s="113"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="124"/>
-    </row>
-    <row r="29" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="101"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="126"/>
-    </row>
-    <row r="31" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="13">
-        <v>100</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" s="15">
-        <v>0</v>
-      </c>
-      <c r="S31" s="15">
-        <v>0</v>
-      </c>
-      <c r="T31" s="15">
-        <v>0</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V31" s="15">
-        <v>0</v>
-      </c>
-      <c r="W31" s="15">
-        <v>1</v>
-      </c>
-      <c r="X31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="11:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K32" s="14">
-        <v>100</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="103">
-        <v>0</v>
-      </c>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="104">
-        <v>95</v>
-      </c>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="112">
-        <v>255</v>
-      </c>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="AE12:AL12"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="AE16:AL16"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="K9:AL9"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="K4:AL4"/>
-    <mergeCell ref="AE5:AL5"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="AE20:AL20"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="V22:AC22"/>
-    <mergeCell ref="M32:T32"/>
-    <mergeCell ref="V32:AC32"/>
-    <mergeCell ref="AE32:AL32"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="V24:AC24"/>
-    <mergeCell ref="AE24:AL24"/>
-    <mergeCell ref="M28:T28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="AE28:AL28"/>
-    <mergeCell ref="V26:AC26"/>
-    <mergeCell ref="K30:AL30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB28118-31EE-46DB-A4C5-121CA8151669}">
   <dimension ref="B1:AL21"/>
   <sheetViews>
@@ -12985,1516 +8465,1520 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="66" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="3.6640625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="1.5546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="3.6640625" style="66" customWidth="1"/>
-    <col min="20" max="20" width="1.5546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="3.6640625" style="66" customWidth="1"/>
-    <col min="29" max="29" width="1.5546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="3.6640625" style="66" customWidth="1"/>
-    <col min="38" max="38" width="3.88671875" style="66" customWidth="1"/>
-    <col min="39" max="16384" width="9.109375" style="66"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="3.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="3.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="3.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="3.88671875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="6.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:38" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="145"/>
-      <c r="AL2" s="146"/>
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="24"/>
     </row>
     <row r="3" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="86">
+      <c r="B3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="21">
         <v>99</v>
       </c>
-      <c r="D3" s="86">
-        <v>0</v>
-      </c>
-      <c r="E3" s="86">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
         <v>10</v>
       </c>
-      <c r="F3" s="86">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="86">
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="21">
         <v>24</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="71"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="6"/>
     </row>
     <row r="4" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="71"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="6"/>
     </row>
     <row r="5" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="147" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="71"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="85">
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="20">
         <v>4</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="20">
         <v>5</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="20">
         <v>6</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="20">
         <v>7</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="20">
         <v>8</v>
       </c>
-      <c r="K6" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="85">
+      <c r="K6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20">
         <v>9</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="20">
         <v>10</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="20">
         <v>11</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="20">
         <v>12</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="20">
         <v>13</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="20">
         <v>14</v>
       </c>
-      <c r="R6" s="85">
+      <c r="R6" s="20">
         <v>15</v>
       </c>
-      <c r="S6" s="85">
+      <c r="S6" s="20">
         <v>16</v>
       </c>
-      <c r="T6" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="85">
+      <c r="T6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="20">
         <v>17</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="20">
         <v>18</v>
       </c>
-      <c r="W6" s="85">
+      <c r="W6" s="20">
         <v>19</v>
       </c>
-      <c r="X6" s="85">
+      <c r="X6" s="20">
         <v>20</v>
       </c>
-      <c r="Y6" s="85">
+      <c r="Y6" s="20">
         <v>21</v>
       </c>
-      <c r="Z6" s="85">
+      <c r="Z6" s="20">
         <v>22</v>
       </c>
-      <c r="AA6" s="85">
+      <c r="AA6" s="20">
         <v>23</v>
       </c>
-      <c r="AB6" s="85">
+      <c r="AB6" s="20">
         <v>24</v>
       </c>
-      <c r="AC6" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD6" s="85">
+      <c r="AC6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="20">
         <v>25</v>
       </c>
-      <c r="AE6" s="85">
+      <c r="AE6" s="20">
         <v>26</v>
       </c>
-      <c r="AF6" s="85">
+      <c r="AF6" s="20">
         <v>27</v>
       </c>
-      <c r="AG6" s="85">
+      <c r="AG6" s="20">
         <v>28</v>
       </c>
-      <c r="AH6" s="85">
+      <c r="AH6" s="20">
         <v>29</v>
       </c>
-      <c r="AI6" s="85">
+      <c r="AI6" s="20">
         <v>30</v>
       </c>
-      <c r="AJ6" s="85">
+      <c r="AJ6" s="20">
         <v>31</v>
       </c>
-      <c r="AK6" s="85">
+      <c r="AK6" s="20">
         <v>32</v>
       </c>
-      <c r="AL6" s="71"/>
+      <c r="AL6" s="6"/>
     </row>
     <row r="7" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="85">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20">
         <v>128</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="20">
         <v>64</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="20">
         <v>32</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="20">
         <v>16</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="20">
         <v>8</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="20">
         <v>4</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="20">
         <v>2</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="85">
+      <c r="K7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20">
         <v>128</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="20">
         <v>64</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="20">
         <v>32</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="20">
         <v>16</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="20">
         <v>8</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="20">
         <v>4</v>
       </c>
-      <c r="R7" s="85">
+      <c r="R7" s="20">
         <v>2</v>
       </c>
-      <c r="S7" s="85">
+      <c r="S7" s="20">
         <v>1</v>
       </c>
-      <c r="T7" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="85">
+      <c r="T7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="20">
         <v>128</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="20">
         <v>64</v>
       </c>
-      <c r="W7" s="85">
+      <c r="W7" s="20">
         <v>32</v>
       </c>
-      <c r="X7" s="85">
+      <c r="X7" s="20">
         <v>16</v>
       </c>
-      <c r="Y7" s="85">
+      <c r="Y7" s="20">
         <v>8</v>
       </c>
-      <c r="Z7" s="85">
+      <c r="Z7" s="20">
         <v>4</v>
       </c>
-      <c r="AA7" s="85">
+      <c r="AA7" s="20">
         <v>2</v>
       </c>
-      <c r="AB7" s="85">
+      <c r="AB7" s="20">
         <v>1</v>
       </c>
-      <c r="AC7" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="85">
+      <c r="AC7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="20">
         <v>128</v>
       </c>
-      <c r="AE7" s="85">
+      <c r="AE7" s="20">
         <v>64</v>
       </c>
-      <c r="AF7" s="85">
+      <c r="AF7" s="20">
         <v>32</v>
       </c>
-      <c r="AG7" s="85">
+      <c r="AG7" s="20">
         <v>16</v>
       </c>
-      <c r="AH7" s="85">
+      <c r="AH7" s="20">
         <v>8</v>
       </c>
-      <c r="AI7" s="85">
+      <c r="AI7" s="20">
         <v>4</v>
       </c>
-      <c r="AJ7" s="85">
+      <c r="AJ7" s="20">
         <v>2</v>
       </c>
-      <c r="AK7" s="85">
+      <c r="AK7" s="20">
         <v>1</v>
       </c>
-      <c r="AL7" s="71"/>
+      <c r="AL7" s="6"/>
     </row>
     <row r="8" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="141">
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26">
         <f>IF($C$3&lt;&gt;"",$C$3,"")</f>
         <v>99</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="141">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
         <f>IF($D$3&lt;&gt;"",$D$3,"")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="141">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
         <f>IF($E$3&lt;&gt;"",$E$3,"")</f>
         <v>10</v>
       </c>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="141">
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="26">
         <f>IF($F$3&lt;&gt;"",$F$3,"")</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="71"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="6"/>
     </row>
     <row r="9" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="85">
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="20">
         <f>VLOOKUP($C$3,range,2)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="20">
         <f>VLOOKUP($C$3,range,3)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="20">
         <f>VLOOKUP($C$3,range,4)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="20">
         <f>VLOOKUP($C$3,range,5)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="20">
         <f>VLOOKUP($C$3,range,6)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="20">
         <f>VLOOKUP($C$3,range,7)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="20">
         <f>VLOOKUP($C$3,range,8)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="20">
         <f>VLOOKUP($C$3,range,9)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="85">
+      <c r="K9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
         <f>VLOOKUP($D$3,range,2)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="20">
         <f>VLOOKUP($D$3,range,3)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="20">
         <f>VLOOKUP($D$3,range,4)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="20">
         <f>VLOOKUP($D$3,range,5)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="20">
         <f>VLOOKUP($D$3,range,6)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="Q9" s="20">
         <f>VLOOKUP($D$3,range,7)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="85">
+      <c r="R9" s="20">
         <f>VLOOKUP($D$3,range,8)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="20">
         <f>VLOOKUP($D$3,range,9)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="85">
+      <c r="T9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
         <f>VLOOKUP($E$3,range,2)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="85">
+      <c r="V9" s="20">
         <f>VLOOKUP($E$3,range,3)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="85">
+      <c r="W9" s="20">
         <f>VLOOKUP($E$3,range,4)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="85">
+      <c r="X9" s="20">
         <f>VLOOKUP($E$3,range,5)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="85">
+      <c r="Y9" s="20">
         <f>VLOOKUP($E$3,range,6)</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="85">
+      <c r="Z9" s="20">
         <f>VLOOKUP($E$3,range,7)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="85">
+      <c r="AA9" s="20">
         <f>VLOOKUP($E$3,range,8)</f>
         <v>1</v>
       </c>
-      <c r="AB9" s="85">
+      <c r="AB9" s="20">
         <f>VLOOKUP($E$3,range,9)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="85">
+      <c r="AC9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20">
         <f>VLOOKUP($F$3,range,2)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="85">
+      <c r="AE9" s="20">
         <f>VLOOKUP($F$3,range,3)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="85">
+      <c r="AF9" s="20">
         <f>VLOOKUP($F$3,range,4)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="85">
+      <c r="AG9" s="20">
         <f>VLOOKUP($F$3,range,5)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="85">
+      <c r="AH9" s="20">
         <f>VLOOKUP($F$3,range,6)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="85">
+      <c r="AI9" s="20">
         <f>VLOOKUP($F$3,range,7)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="85">
+      <c r="AJ9" s="20">
         <f>VLOOKUP($F$3,range,8)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="85">
+      <c r="AK9" s="20">
         <f>VLOOKUP($F$3,range,9)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="71"/>
+      <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="141">
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26">
         <f>IF($H$3&lt;&gt;"",C11*C7+D11*D7+E11*E7+F11*F7+G11*G7+H11*H7+I11*I7+J11*J7,"")</f>
         <v>255</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="141">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
         <f>IF($H$3&lt;&gt;"",L11*L7+M11*M7+N11*N7+O11*O7+P11*P7+Q11*Q7+R11*R7+S11*S7,"")</f>
         <v>255</v>
       </c>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="141">
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26">
         <f>IF($H$3&lt;&gt;"",U11*U7+V11*V7+W11*W7+X11*X7+Y11*Y7+Z11*Z7+AA11*AA7+AB11*AB7,"")</f>
         <v>255</v>
       </c>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="141">
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="26">
         <f>IF($H$3&lt;&gt;"",AD11*AD7+AE11*AE7+AF11*AF7+AG11*AG7+AH11*AH7+AI11*AI7+AJ11*AJ7+AK11*AK7,"")</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="141"/>
-      <c r="AJ10" s="141"/>
-      <c r="AK10" s="141"/>
-      <c r="AL10" s="71"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="85">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" ref="C11:J11" si="0">IF(C$6&gt;$H$3,0,1)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="85">
+      <c r="K11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" ref="L11:S11" si="1">IF(L$6&gt;$H$3,0,1)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="Q11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R11" s="85">
+      <c r="R11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S11" s="85">
+      <c r="S11" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T11" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="85">
+      <c r="T11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
         <f t="shared" ref="U11:AB11" si="2">IF(U$6&gt;$H$3,0,1)</f>
         <v>1</v>
       </c>
-      <c r="V11" s="85">
+      <c r="V11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W11" s="85">
+      <c r="W11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X11" s="85">
+      <c r="X11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="85">
+      <c r="Y11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z11" s="85">
+      <c r="Z11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA11" s="85">
+      <c r="AA11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB11" s="85">
+      <c r="AB11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC11" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="85">
+      <c r="AC11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20">
         <f t="shared" ref="AD11:AK11" si="3">IF(AD$6&gt;$H$3,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="85">
+      <c r="AE11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="85">
+      <c r="AF11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="85">
+      <c r="AG11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="85">
+      <c r="AH11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="85">
+      <c r="AI11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="85">
+      <c r="AJ11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="85">
+      <c r="AK11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="71"/>
+      <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="2:38" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="85">
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" ref="C12:J12" si="4">IF(C11=0,C7,0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="85">
+      <c r="K12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
         <f t="shared" ref="L12:S12" si="5">IF(L11=0,L7,0)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="85">
+      <c r="Q12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="85">
+      <c r="R12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S12" s="85">
+      <c r="S12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="85">
+      <c r="T12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
         <f t="shared" ref="U12:AB12" si="6">IF(U11=0,U7,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="85">
+      <c r="V12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W12" s="85">
+      <c r="W12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X12" s="85">
+      <c r="X12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="85">
+      <c r="Y12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="85">
+      <c r="Z12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="85">
+      <c r="AA12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="85">
+      <c r="AB12" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="85">
+      <c r="AC12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="20">
         <f t="shared" ref="AD12:AK12" si="7">IF(AD11=0,AD7,0)</f>
         <v>128</v>
       </c>
-      <c r="AE12" s="85">
+      <c r="AE12" s="20">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="AF12" s="85">
+      <c r="AF12" s="20">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="AG12" s="85">
+      <c r="AG12" s="20">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AH12" s="85">
+      <c r="AH12" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AI12" s="85">
+      <c r="AI12" s="20">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AJ12" s="85">
+      <c r="AJ12" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AK12" s="85">
+      <c r="AK12" s="20">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AL12" s="71"/>
+      <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="141">
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26">
         <f>IF($C$10&lt;&gt;"",SUM(C12:J12),"")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="141">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
         <f>IF($L$10&lt;&gt;"",SUM(L12:S12),"")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="141">
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
         <f>IF($U$10&lt;&gt;"",SUM(U12:AB12),"")</f>
         <v>0</v>
       </c>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="141">
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="26">
         <f>IF($AD$10&lt;&gt;"",SUM(AD12:AK12),"")</f>
         <v>255</v>
       </c>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="141"/>
-      <c r="AK13" s="141"/>
-      <c r="AL13" s="71"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="71"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="6"/>
     </row>
     <row r="15" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="142">
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="30">
         <f>IF($H$3&lt;&gt;"",(VLOOKUP($H$3,host,2)-2),"")</f>
         <v>254</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="71"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:38" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="78">
+      <c r="B16" s="15"/>
+      <c r="C16" s="13">
         <f t="shared" ref="C16:J16" si="8">IF(AND(C11=1,C9=1),C7,0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="13">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="13">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="13">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="77">
+      <c r="K16" s="14"/>
+      <c r="L16" s="12">
         <f t="shared" ref="L16:S16" si="9">IF(AND(L11=1,L9=1),L7,0)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P16" s="77">
+      <c r="P16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="77">
+      <c r="Q16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T16" s="73"/>
-      <c r="U16" s="78">
+      <c r="T16" s="8"/>
+      <c r="U16" s="13">
         <f t="shared" ref="U16:AB16" si="10">IF(AND(U11=1,U9=1),U7,0)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="78">
+      <c r="V16" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W16" s="78">
+      <c r="W16" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X16" s="78">
+      <c r="X16" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="78">
+      <c r="Y16" s="13">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="Z16" s="78">
+      <c r="Z16" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="78">
+      <c r="AA16" s="13">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AB16" s="78">
+      <c r="AB16" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="77">
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="12">
         <f t="shared" ref="AD16:AK16" si="11">IF(AND(AD11=1,AD9=1),AD7,0)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="77">
+      <c r="AE16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="77">
+      <c r="AF16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="77">
+      <c r="AG16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="77">
+      <c r="AH16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="77">
+      <c r="AI16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="77">
+      <c r="AJ16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="77">
+      <c r="AK16" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="71"/>
+      <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="143">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="31">
         <f>IF($H$3&lt;&gt;"",SUM(C16:J16),"")</f>
         <v>99</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="143">
+      <c r="D17" s="32"/>
+      <c r="E17" s="31">
         <f>IF($H$3&lt;&gt;"",SUM(L16:S16),"")</f>
         <v>0</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="143">
+      <c r="F17" s="32"/>
+      <c r="G17" s="31">
         <f>IF($H$3&lt;&gt;"",SUM(U16:AB16),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="137"/>
-      <c r="I17" s="143">
+      <c r="H17" s="32"/>
+      <c r="I17" s="31">
         <f>IF($H$3&lt;&gt;"",SUM(AD16:AK16)+1,"")</f>
         <v>1</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="137">
+      <c r="J17" s="32"/>
+      <c r="K17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32">
         <f>IF(C17&lt;&gt;"",IF(C10=255,C8,255-C10+C17),"")</f>
         <v>99</v>
       </c>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32">
         <f>IF(E17&lt;&gt;"",IF(L10=255,L8,255-L10+E17),"")</f>
         <v>0</v>
       </c>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137">
+      <c r="O17" s="32"/>
+      <c r="P17" s="32">
         <f>IF(G17&lt;&gt;"",IF(U10=255,U8,255-U10+G17),"")</f>
         <v>10</v>
       </c>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32">
         <f>IF(I17&lt;&gt;"",IF(AD10=255,AD8,255-AD10+I17-2),"")</f>
         <v>254</v>
       </c>
-      <c r="S17" s="137"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="134">
+      <c r="S17" s="32"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="28">
         <f>IF($C$10&lt;&gt;"",255-$C$10,"")</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="134">
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="28">
         <f>IF($L$10&lt;&gt;"",255-$L$10,"")</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="134">
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="28">
         <f>IF($U$10&lt;&gt;"",255-$U$10,"")</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="135"/>
-      <c r="AJ17" s="134">
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="28">
         <f>IF($AD$10&lt;&gt;"",255-$AD$10,"")</f>
         <v>255</v>
       </c>
-      <c r="AK17" s="135"/>
-      <c r="AL17" s="71"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="136">
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33">
         <f>IF(C8&lt;&gt;"",SUM(C16:J16),"")</f>
         <v>99</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="136">
+      <c r="D18" s="34"/>
+      <c r="E18" s="33">
         <f>IF(L8&lt;&gt;"",SUM(L16:S16),"")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="136">
+      <c r="F18" s="34"/>
+      <c r="G18" s="33">
         <f>IF(U8&lt;&gt;"",SUM(U16:AB16),"")</f>
         <v>10</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="136">
+      <c r="H18" s="34"/>
+      <c r="I18" s="33">
         <f>IF(AD8&lt;&gt;"",SUM(AD16:AK16),"")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="131"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="71"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="6"/>
     </row>
     <row r="19" spans="2:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="131">
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="34">
         <f>L17</f>
         <v>99</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34">
         <f>N17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34">
         <f>P17</f>
         <v>10</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34">
         <f>IF($R$17&lt;&gt;"",R17+1,"")</f>
         <v>255</v>
       </c>
-      <c r="J19" s="131"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="131">
+      <c r="J19" s="34"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="34">
         <f>IF(H3&lt;&gt;"",COUNTIF(L11:AK11,"1"),"")</f>
         <v>16</v>
       </c>
-      <c r="V19" s="131"/>
-      <c r="W19" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="131">
+      <c r="V19" s="34"/>
+      <c r="W19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="34">
         <f>IF(H3&lt;&gt;"",COUNTIF(L11:AK11,"0"),"")</f>
         <v>8</v>
       </c>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="138" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="139" t="str">
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="38" t="str">
         <f>IF(C8&lt;&gt;"",IF(C9=0,"Class A",IF(AND(C9=1,D9=0),"Class B",IF(AND(C9=1,D9=1),"Class C",0))),"")</f>
         <v>Class A</v>
       </c>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="71"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="6"/>
     </row>
     <row r="20" spans="2:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="68"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="3"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="AE21" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="130"/>
+      <c r="AE21" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="46">
-    <mergeCell ref="B2:AL2"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="L8:S8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="AE21:AL21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="N17:O17"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="L13:S13"/>
     <mergeCell ref="U13:AB13"/>
@@ -14510,24 +9994,20 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="N17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="AD8:AK8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="U10:AB10"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="B2:AL2"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="AD5:AK5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
